--- a/medicine/Enfance/Émile_et_les_Trois_Jumeaux/Émile_et_les_Trois_Jumeaux.xlsx
+++ b/medicine/Enfance/Émile_et_les_Trois_Jumeaux/Émile_et_les_Trois_Jumeaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile_et_les_Trois_Jumeaux</t>
+          <t>Émile_et_les_Trois_Jumeaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Émile et les Trois Jumeaux (titre allemand : Emil und die drei Zwillinge) est un roman pour la jeunesse de l'écrivain allemand Erich Kästner publié en 1934. En France, il paraît pour la première fois en 1949[1].
+Émile et les Trois Jumeaux (titre allemand : Emil und die drei Zwillinge) est un roman pour la jeunesse de l'écrivain allemand Erich Kästner publié en 1934. En France, il paraît pour la première fois en 1949.
 Ce roman est la suite d'Émile et les détectives. L'histoire se déroule environ deux ans après les aventures qu'ont vécu Émile Tischbein et ses amis à Berlin. Les jeunes détectives sont désormais dans « l'âge de la confirmation ». Certes, ils se sentent concernés par les problèmes du monde des adultes mais ils essaient de les résoudre avec la simplicité et la droiture propres à l'enfance.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mile_et_les_Trois_Jumeaux</t>
+          <t>Émile_et_les_Trois_Jumeaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Theodore Haberland, un des héros d'Émile et les détectives, surnommé Le Professeur, a hérité d'une petite maison sur la mer Baltique. Ses amis détectives du même âge, Émile Tischbein, Gustave à la houppe, le petit Dienstag, Pony Hütchen (la cousine d'Émile), ainsi que la grand-mère d'Émile, sont invités par le professeur et ses parents à passer les vacances dans cette maisonnette. 
 Cependant, Émile et sa mère, célibataire, ont un dilemme moral, depuis que le sergent Jeschke (déjà présent dans le premier roman) l'a demandé[Information douteuse] en mariage. Émile donne son consentement, tout en souhaitant continuer à vivre avec sa mère comme avant. Madame Tischbein envisage de se marier, moins par amour que dans un souci de protection pour son fils. Ils n'en parlent à personne et Émile part en vacances.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89mile_et_les_Trois_Jumeaux</t>
+          <t>Émile_et_les_Trois_Jumeaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1974, le roman a été adapté pour la radio avec les voix de Hans Söhnker et Edith Hancke.
 </t>
